--- a/biology/Botanique/Cressa_cretica/Cressa_cretica.xlsx
+++ b/biology/Botanique/Cressa_cretica/Cressa_cretica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cressa cretica, aussi appelé Cressa de Crète[1] est une espèce de plantes de la famille des Convolvulaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cressa cretica, aussi appelé Cressa de Crète est une espèce de plantes de la famille des Convolvulaceae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante halophile[2] à la tige ligneuse peut atteindre une taille de 25 cm[3].
-Elle a un calice de trois à quatre millimètres de long[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante halophile à la tige ligneuse peut atteindre une taille de 25 cm.
+Elle a un calice de trois à quatre millimètres de long,.
 </t>
         </is>
       </c>
@@ -544,6 +558,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -569,9 +585,11 @@
           <t>Médecine traditionnelle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cressa cretica est utilisé dans la médecine traditionnelle indienne[5] (sous le nom d'« amritsrava »[6]) et soudanaise[7] comme stomachique et expectorant.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cressa cretica est utilisé dans la médecine traditionnelle indienne (sous le nom d'« amritsrava ») et soudanaise comme stomachique et expectorant.
 </t>
         </is>
       </c>
